--- a/BalanceSheet/ETSY_bal.xlsx
+++ b/BalanceSheet/ETSY_bal.xlsx
@@ -2607,19 +2607,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-3553000.0</v>
+        <v>58000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-1634000.0</v>
+        <v>62000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>10218000.0</v>
+        <v>58000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-2829000.0</v>
+        <v>48000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-8540000.0</v>
+        <v>50000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>83130000.0</v>
